--- a/International Widgets.xlsx
+++ b/International Widgets.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Кирилл\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="7215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>Invoice No.</t>
   </si>
@@ -100,9 +95,6 @@
   </si>
   <si>
     <t>Freens R Us</t>
-  </si>
-  <si>
-    <t>Cust. ID</t>
   </si>
   <si>
     <t>Orders</t>
@@ -138,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -446,26 +438,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,34 +489,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -564,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -616,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -810,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,7 +813,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,13 +834,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1034,169 +1026,44 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>125</v>
-      </c>
-      <c r="B13" s="1">
-        <v>37512</v>
-      </c>
-      <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3">
-        <v>563</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-      <c r="K13" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>14</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>125</v>
-      </c>
-      <c r="B14" s="1">
-        <v>37512</v>
-      </c>
-      <c r="C14">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3">
-        <v>851</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3">
-        <v>32</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="4">
-        <v>8</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>125</v>
-      </c>
-      <c r="B15" s="1">
-        <v>37512</v>
-      </c>
-      <c r="C15">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3">
-        <v>652</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>12</v>
-      </c>
-      <c r="L15" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>56</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
   </sheetData>
@@ -1212,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -1231,958 +1098,958 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>125</v>
+      </c>
+      <c r="B7" s="19">
+        <v>37512</v>
+      </c>
+      <c r="C7" s="18">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18">
+        <v>563</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="18">
+        <v>4</v>
+      </c>
+      <c r="G7" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="20">
+        <v>14</v>
+      </c>
+      <c r="I7" s="20">
+        <v>82</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>125</v>
+      </c>
+      <c r="B8" s="19">
+        <v>37512</v>
+      </c>
+      <c r="C8" s="18">
+        <v>56</v>
+      </c>
+      <c r="D8" s="18">
+        <v>851</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18">
+        <v>32</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="20">
+        <v>8</v>
+      </c>
+      <c r="I8" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>125</v>
+      </c>
+      <c r="B9" s="19">
+        <v>37512</v>
+      </c>
+      <c r="C9" s="18">
+        <v>56</v>
+      </c>
+      <c r="D9" s="18">
+        <v>652</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20">
+        <v>12</v>
+      </c>
+      <c r="H9" s="20">
+        <v>60</v>
+      </c>
+      <c r="I9" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>126</v>
+      </c>
+      <c r="B10" s="19">
+        <v>37513</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>563</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="18">
+        <v>500</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1750</v>
+      </c>
+      <c r="I10" s="20">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>126</v>
+      </c>
+      <c r="B11" s="19">
+        <v>37513</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>652</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18">
+        <v>750</v>
+      </c>
+      <c r="G11" s="20">
+        <v>12</v>
+      </c>
+      <c r="H11" s="20">
+        <v>9000</v>
+      </c>
+      <c r="I11" s="20">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>56</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="5" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>125</v>
-      </c>
-      <c r="B7" s="20">
-        <v>37512</v>
-      </c>
-      <c r="C7" s="19">
-        <v>56</v>
-      </c>
-      <c r="D7" s="19">
-        <v>563</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19">
-        <v>4</v>
-      </c>
-      <c r="G7" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="H7" s="21">
-        <v>14</v>
-      </c>
-      <c r="I7" s="21">
-        <v>82</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>125</v>
-      </c>
-      <c r="B8" s="20">
-        <v>37512</v>
-      </c>
-      <c r="C8" s="19">
-        <v>56</v>
-      </c>
-      <c r="D8" s="19">
-        <v>851</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19">
-        <v>32</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="H8" s="21">
-        <v>8</v>
-      </c>
-      <c r="I8" s="21">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>125</v>
-      </c>
-      <c r="B9" s="20">
-        <v>37512</v>
-      </c>
-      <c r="C9" s="19">
-        <v>56</v>
-      </c>
-      <c r="D9" s="19">
-        <v>652</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="19">
-        <v>5</v>
-      </c>
-      <c r="G9" s="21">
-        <v>12</v>
-      </c>
-      <c r="H9" s="21">
-        <v>60</v>
-      </c>
-      <c r="I9" s="21">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>126</v>
-      </c>
-      <c r="B10" s="20">
-        <v>37513</v>
-      </c>
-      <c r="C10" s="19">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>563</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="19">
-        <v>500</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="H10" s="21">
-        <v>1750</v>
-      </c>
-      <c r="I10" s="21">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>126</v>
-      </c>
-      <c r="B11" s="20">
-        <v>37513</v>
-      </c>
-      <c r="C11" s="19">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
-        <v>652</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="19">
-        <v>750</v>
-      </c>
-      <c r="G11" s="21">
-        <v>12</v>
-      </c>
-      <c r="H11" s="21">
-        <v>9000</v>
-      </c>
-      <c r="I11" s="21">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>56</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>563</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="21">
         <v>851</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
+      <c r="A28" s="23">
         <v>652</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>1</v>
+      </c>
+      <c r="B32" s="18">
+        <v>56</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2</v>
+      </c>
+      <c r="B33" s="18">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="27"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B36" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>1</v>
+      </c>
+      <c r="B37" s="18">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18">
+        <v>125</v>
+      </c>
+      <c r="D37" s="19">
+        <v>37512</v>
+      </c>
+      <c r="E37" s="20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
         <v>2</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="B38" s="18">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18">
+        <v>126</v>
+      </c>
+      <c r="D38" s="19">
+        <v>37513</v>
+      </c>
+      <c r="E38" s="20">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18">
+        <v>563</v>
+      </c>
+      <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="D42" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>1</v>
+      </c>
+      <c r="B43" s="18">
+        <v>851</v>
+      </c>
+      <c r="C43" s="18">
+        <v>32</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>1</v>
+      </c>
+      <c r="B44" s="18">
+        <v>652</v>
+      </c>
+      <c r="C44" s="18">
         <v>5</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19">
-        <v>56</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="D44" s="20">
+        <v>12</v>
+      </c>
+      <c r="E44" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
         <v>2</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B45" s="18">
+        <v>563</v>
+      </c>
+      <c r="C45" s="18">
+        <v>500</v>
+      </c>
+      <c r="D45" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="E45" s="20">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
         <v>2</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="38"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="18" t="s">
+      <c r="B46" s="18">
+        <v>652</v>
+      </c>
+      <c r="C46" s="18">
+        <v>750</v>
+      </c>
+      <c r="D46" s="20">
         <v>12</v>
       </c>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>1</v>
-      </c>
-      <c r="B37" s="19">
-        <v>1</v>
-      </c>
-      <c r="C37" s="19">
-        <v>125</v>
-      </c>
-      <c r="D37" s="20">
-        <v>37512</v>
-      </c>
-      <c r="E37" s="21">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19">
-        <v>2</v>
-      </c>
-      <c r="C38" s="19">
-        <v>126</v>
-      </c>
-      <c r="D38" s="20">
-        <v>37513</v>
-      </c>
-      <c r="E38" s="21">
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="32" t="s">
+      <c r="E46" s="20">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>1</v>
-      </c>
-      <c r="B42" s="19">
-        <v>563</v>
-      </c>
-      <c r="C42" s="19">
-        <v>4</v>
-      </c>
-      <c r="D42" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="E42" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>1</v>
-      </c>
-      <c r="B43" s="19">
-        <v>851</v>
-      </c>
-      <c r="C43" s="19">
-        <v>32</v>
-      </c>
-      <c r="D43" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>1</v>
-      </c>
-      <c r="B44" s="19">
-        <v>652</v>
-      </c>
-      <c r="C44" s="19">
-        <v>5</v>
-      </c>
-      <c r="D44" s="21">
-        <v>12</v>
-      </c>
-      <c r="E44" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>2</v>
-      </c>
-      <c r="B45" s="19">
-        <v>563</v>
-      </c>
-      <c r="C45" s="19">
-        <v>500</v>
-      </c>
-      <c r="D45" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="E45" s="21">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>2</v>
-      </c>
-      <c r="B46" s="19">
-        <v>652</v>
-      </c>
-      <c r="C46" s="19">
-        <v>750</v>
-      </c>
-      <c r="D46" s="21">
-        <v>12</v>
-      </c>
-      <c r="E46" s="21">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="A55" s="21">
         <v>563</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="22">
         <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
+      <c r="A56" s="21">
         <v>851</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="22">
         <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
+      <c r="A57" s="23">
         <v>652</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-    </row>
-    <row r="60" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+      <c r="B60" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>1</v>
+      </c>
+      <c r="B61" s="18">
+        <v>56</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>2</v>
+      </c>
+      <c r="B62" s="18">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A64" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B65" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="30"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>1</v>
+      </c>
+      <c r="B66" s="18">
+        <v>1</v>
+      </c>
+      <c r="C66" s="18">
+        <v>125</v>
+      </c>
+      <c r="D66" s="29">
+        <v>37512</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
         <v>2</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="B67" s="18">
+        <v>2</v>
+      </c>
+      <c r="C67" s="18">
+        <v>126</v>
+      </c>
+      <c r="D67" s="29">
+        <v>37513</v>
+      </c>
+      <c r="E67" s="31"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A69" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="30"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>1</v>
+      </c>
+      <c r="B71" s="18">
+        <v>563</v>
+      </c>
+      <c r="C71" s="18">
         <v>4</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="D71" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="E71" s="31"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>1</v>
+      </c>
+      <c r="B72" s="18">
+        <v>851</v>
+      </c>
+      <c r="C72" s="18">
+        <v>32</v>
+      </c>
+      <c r="D72" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E72" s="31"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>1</v>
+      </c>
+      <c r="B73" s="18">
+        <v>652</v>
+      </c>
+      <c r="C73" s="18">
         <v>5</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <v>1</v>
-      </c>
-      <c r="B61" s="19">
-        <v>56</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
+      <c r="D73" s="32">
+        <v>12</v>
+      </c>
+      <c r="E73" s="31"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
         <v>2</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B74" s="18">
+        <v>563</v>
+      </c>
+      <c r="C74" s="18">
+        <v>500</v>
+      </c>
+      <c r="D74" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="E74" s="31"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
         <v>2</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A64" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="37"/>
-    </row>
-    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="37"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="19">
-        <v>1</v>
-      </c>
-      <c r="B66" s="19">
-        <v>1</v>
-      </c>
-      <c r="C66" s="19">
-        <v>125</v>
-      </c>
-      <c r="D66" s="42">
-        <v>37512</v>
-      </c>
-      <c r="E66" s="44"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="19">
-        <v>2</v>
-      </c>
-      <c r="B67" s="19">
-        <v>2</v>
-      </c>
-      <c r="C67" s="19">
-        <v>126</v>
-      </c>
-      <c r="D67" s="42">
-        <v>37513</v>
-      </c>
-      <c r="E67" s="44"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A69" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="38"/>
-    </row>
-    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="43"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="19">
-        <v>1</v>
-      </c>
-      <c r="B71" s="19">
-        <v>563</v>
-      </c>
-      <c r="C71" s="19">
-        <v>4</v>
-      </c>
-      <c r="D71" s="45">
-        <v>3.5</v>
-      </c>
-      <c r="E71" s="44"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="19">
-        <v>1</v>
-      </c>
-      <c r="B72" s="19">
-        <v>851</v>
-      </c>
-      <c r="C72" s="19">
-        <v>32</v>
-      </c>
-      <c r="D72" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="E72" s="44"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="19">
-        <v>1</v>
-      </c>
-      <c r="B73" s="19">
+      <c r="B75" s="18">
         <v>652</v>
       </c>
-      <c r="C73" s="19">
-        <v>5</v>
-      </c>
-      <c r="D73" s="45">
+      <c r="C75" s="18">
+        <v>750</v>
+      </c>
+      <c r="D75" s="32">
         <v>12</v>
       </c>
-      <c r="E73" s="44"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="19">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19">
-        <v>563</v>
-      </c>
-      <c r="C74" s="19">
-        <v>500</v>
-      </c>
-      <c r="D74" s="45">
-        <v>3.5</v>
-      </c>
-      <c r="E74" s="44"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="19">
-        <v>2</v>
-      </c>
-      <c r="B75" s="19">
-        <v>652</v>
-      </c>
-      <c r="C75" s="19">
-        <v>750</v>
-      </c>
-      <c r="D75" s="45">
-        <v>12</v>
-      </c>
-      <c r="E75" s="44"/>
+      <c r="E75" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A49:M50"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A51:I51"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A49:M50"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
